--- a/pubmed_validation_sheets/27489047 DISNET VALIDATION.xlsx
+++ b/pubmed_validation_sheets/27489047 DISNET VALIDATION.xlsx
@@ -1,31 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10319"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gerardo/Documents/DISNET/CURRENT/pubmed/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gerardo/Documents/1.Doctorado/DISNET_VALIDATION/pubmed/1.Validated/OK_DISNET_VALIDATION_PUBMED_(100)_v0.2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{97AC2B8C-B01A-8849-AC7B-A5C75DC673DA}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04D91E4E-81D8-3B4E-BC86-68E1388FF18B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38440" yWindow="480" windowWidth="17640" windowHeight="16940" xr2:uid="{6E52D1B4-F9CB-4441-9081-5C2868523BBB}"/>
   </bookViews>
   <sheets>
     <sheet name="VALIDATION" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">VALIDATION!$A$3:$I$3</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="62">
   <si>
     <t>WIKIPEDIA TERMS</t>
   </si>
@@ -189,6 +197,30 @@
   </si>
   <si>
     <t>FPCONTEXT</t>
+  </si>
+  <si>
+    <t>glial, tumours</t>
+  </si>
+  <si>
+    <t>Glioma</t>
+  </si>
+  <si>
+    <t>[neop]</t>
+  </si>
+  <si>
+    <t>tumours, tumour</t>
+  </si>
+  <si>
+    <t>Neoplasms</t>
+  </si>
+  <si>
+    <t>oligodendrogliomas, oligodendroglioma</t>
+  </si>
+  <si>
+    <t>Oligodendroglioma, NOS</t>
+  </si>
+  <si>
+    <t>FPREAL</t>
   </si>
 </sst>
 </file>
@@ -476,7 +508,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -512,6 +544,9 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -844,10 +879,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F743750-5540-5B42-BCD9-474CEE4AA1C7}">
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:N25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -862,37 +897,37 @@
     <col min="9" max="9" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="110" customHeight="1" thickBot="1">
-      <c r="B1" s="19" t="s">
+    <row r="1" spans="1:14" ht="110" customHeight="1" thickBot="1">
+      <c r="B1" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-    </row>
-    <row r="2" spans="1:9" ht="17" customHeight="1" thickBot="1">
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+    </row>
+    <row r="2" spans="1:14" ht="17" customHeight="1" thickBot="1">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="21"/>
+      <c r="D2" s="22"/>
       <c r="E2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="F2" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="24"/>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="25"/>
+    </row>
+    <row r="3" spans="1:14">
       <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
@@ -918,7 +953,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:14">
       <c r="A4">
         <v>1</v>
       </c>
@@ -946,8 +981,12 @@
       <c r="I4" s="14" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="19"/>
+      <c r="N4" s="19"/>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5">
         <v>2</v>
       </c>
@@ -975,8 +1014,12 @@
       <c r="I5" s="14" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="K5" s="19"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="19"/>
+      <c r="N5" s="19"/>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6">
         <v>3</v>
       </c>
@@ -1004,8 +1047,12 @@
       <c r="I6" s="14" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:9">
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="19"/>
+      <c r="N6" s="19"/>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7">
         <v>4</v>
       </c>
@@ -1033,8 +1080,12 @@
       <c r="I7" s="14" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="19"/>
+      <c r="N7" s="19"/>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8">
         <v>5</v>
       </c>
@@ -1062,8 +1113,12 @@
       <c r="I8" s="14" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="9" spans="1:9">
+      <c r="K8" s="19"/>
+      <c r="L8" s="19"/>
+      <c r="M8" s="19"/>
+      <c r="N8" s="19"/>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9">
         <v>6</v>
       </c>
@@ -1091,8 +1146,12 @@
       <c r="I9" s="14" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="10" spans="1:9">
+      <c r="K9" s="19"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="19"/>
+      <c r="N9" s="19"/>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10">
         <v>7</v>
       </c>
@@ -1120,8 +1179,12 @@
       <c r="I10" s="14" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="11" spans="1:9">
+      <c r="K10" s="19"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="19"/>
+      <c r="N10" s="19"/>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11">
         <v>8</v>
       </c>
@@ -1149,8 +1212,12 @@
       <c r="I11" s="14" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="12" spans="1:9">
+      <c r="K11" s="19"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="19"/>
+      <c r="N11" s="19"/>
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12">
         <v>9</v>
       </c>
@@ -1178,8 +1245,12 @@
       <c r="I12" s="14" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="13" spans="1:9">
+      <c r="K12" s="19"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="19"/>
+      <c r="N12" s="19"/>
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13">
         <v>10</v>
       </c>
@@ -1207,8 +1278,12 @@
       <c r="I13" s="14" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:9">
+      <c r="K13" s="19"/>
+      <c r="L13" s="19"/>
+      <c r="M13" s="19"/>
+      <c r="N13" s="19"/>
+    </row>
+    <row r="14" spans="1:14">
       <c r="A14">
         <v>11</v>
       </c>
@@ -1236,8 +1311,12 @@
       <c r="I14" s="14" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="15" spans="1:9">
+      <c r="K14" s="19"/>
+      <c r="L14" s="19"/>
+      <c r="M14" s="19"/>
+      <c r="N14" s="19"/>
+    </row>
+    <row r="15" spans="1:14">
       <c r="A15">
         <v>12</v>
       </c>
@@ -1265,8 +1344,12 @@
       <c r="I15" s="14" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="16" spans="1:9">
+      <c r="K15" s="19"/>
+      <c r="L15" s="19"/>
+      <c r="M15" s="19"/>
+      <c r="N15" s="19"/>
+    </row>
+    <row r="16" spans="1:14">
       <c r="A16">
         <v>13</v>
       </c>
@@ -1294,8 +1377,12 @@
       <c r="I16" s="14" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="17" spans="1:9">
+      <c r="K16" s="19"/>
+      <c r="L16" s="19"/>
+      <c r="M16" s="19"/>
+      <c r="N16" s="19"/>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17">
         <v>14</v>
       </c>
@@ -1323,8 +1410,12 @@
       <c r="I17" s="14" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="18" spans="1:9">
+      <c r="K17" s="19"/>
+      <c r="L17" s="19"/>
+      <c r="M17" s="19"/>
+      <c r="N17" s="19"/>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18">
         <v>15</v>
       </c>
@@ -1352,8 +1443,12 @@
       <c r="I18" s="14" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="19" spans="1:9">
+      <c r="K18" s="19"/>
+      <c r="L18" s="19"/>
+      <c r="M18" s="19"/>
+      <c r="N18" s="19"/>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19">
         <v>16</v>
       </c>
@@ -1381,8 +1476,12 @@
       <c r="I19" s="14" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="20" spans="1:9">
+      <c r="K19" s="19"/>
+      <c r="L19" s="19"/>
+      <c r="M19" s="19"/>
+      <c r="N19" s="19"/>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20">
         <v>17</v>
       </c>
@@ -1410,28 +1509,136 @@
       <c r="I20" s="14" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="B21" s="15"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="18"/>
-      <c r="I21" s="18"/>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="14"/>
+      <c r="K20" s="19"/>
+      <c r="L20" s="19"/>
+      <c r="M20" s="19"/>
+      <c r="N20" s="19"/>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="A21">
+        <v>18</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="E21" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G21" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="H21" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="I21" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="K21" s="19"/>
+      <c r="L21" s="19"/>
+      <c r="M21" s="19"/>
+      <c r="N21" s="19"/>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="A22">
+        <v>19</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="E22" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G22" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="H22" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="I22" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="K22" s="19"/>
+      <c r="L22" s="19"/>
+      <c r="M22" s="19"/>
+      <c r="N22" s="19"/>
+    </row>
+    <row r="23" spans="1:14">
+      <c r="A23">
+        <v>20</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="E23" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F23" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G23" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="H23" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="I23" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="K23" s="19"/>
+      <c r="L23" s="19"/>
+      <c r="M23" s="19"/>
+      <c r="N23" s="19"/>
+    </row>
+    <row r="24" spans="1:14">
+      <c r="B24" s="15"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="18"/>
+    </row>
+    <row r="25" spans="1:14">
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="14"/>
     </row>
   </sheetData>
+  <autoFilter ref="A3:I3" xr:uid="{6E177770-624C-8047-A55B-B306E08F473F}">
+    <sortState ref="A4:I23">
+      <sortCondition ref="A3:A23"/>
+    </sortState>
+  </autoFilter>
   <mergeCells count="3">
     <mergeCell ref="B1:I1"/>
     <mergeCell ref="C2:D2"/>
